--- a/stroopdataXL.xlsx
+++ b/stroopdataXL.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="stroopdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Congruent</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bin Range </t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Bin Range</t>
   </si>
 </sst>
 </file>
@@ -906,11 +915,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="352512384"/>
-        <c:axId val="276712656"/>
+        <c:axId val="245002344"/>
+        <c:axId val="244789064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352512384"/>
+        <c:axId val="245002344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276712656"/>
+        <c:crossAx val="244789064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1017,7 +1026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276712656"/>
+        <c:axId val="244789064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352512384"/>
+        <c:crossAx val="245002344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1205,7 +1214,953 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Congruent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Times</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stroopdata!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>stroopdata!$A$29:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stroopdata!$B$29:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="446584384"/>
+        <c:axId val="446583600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="446584384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446583600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="446583600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446584384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Incongruent Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38974999999999999"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stroopdata!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>stroopdata!$C$29:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stroopdata!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="442363720"/>
+        <c:axId val="442362936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="442363720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442362936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="442362936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442363720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1748,20 +2703,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474365</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:rowOff>30522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>167891</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:rowOff>30522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1775,6 +3736,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>451338</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>143901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>343821</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>143901</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>510791</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>178358</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2046,10 +4067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2578,6 +4599,100 @@
         <v>-4.0803739952359521</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIFS(A2:A25, "&lt;5")</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <f>COUNTIF(B2:B25, "&lt;15")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <f>COUNTIF(A2:A25, "&gt;5")- COUNTIF(A2:A25, "&gt;=10")</f>
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <f>COUNTIF(B2:B25, "&gt;15") - COUNTIF(B2:B25, "&gt;=20")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <f>COUNTIF(A2:A25, "&gt;10")- COUNTIF(A2:A25, "&gt;=15")</f>
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <f>COUNTIF(B2:B25, "&gt;20") - COUNTIF(B2:B25, "&gt;=25")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <f>COUNTIF(A2:A25, "&gt;15")-COUNTIF(A2:A25, "&gt;=20")</f>
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <f>COUNTIF(B2:B25, "&gt;25") - COUNTIF(B2:B25, "&gt;=30")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <f>COUNTIF(A2:A26, "&gt;20")</f>
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <f>COUNTIF(B2:B25, "&gt;35")</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stroopdataXL.xlsx
+++ b/stroopdataXL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Congruent</t>
   </si>
@@ -58,6 +58,36 @@
   </si>
   <si>
     <t>Bin Range</t>
+  </si>
+  <si>
+    <t>Mean Difference</t>
+  </si>
+  <si>
+    <t>Squared Deviations</t>
+  </si>
+  <si>
+    <t>Sum Squared Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD </t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>SQRT N</t>
+  </si>
+  <si>
+    <t>T-statistic</t>
+  </si>
+  <si>
+    <t>Cohens D</t>
+  </si>
+  <si>
+    <t>CI upper</t>
+  </si>
+  <si>
+    <t>CI lower</t>
   </si>
 </sst>
 </file>
@@ -915,11 +945,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="245002344"/>
-        <c:axId val="244789064"/>
+        <c:axId val="241696016"/>
+        <c:axId val="241703008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="245002344"/>
+        <c:axId val="241696016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,7 +1048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244789064"/>
+        <c:crossAx val="241703008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1026,7 +1056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244789064"/>
+        <c:axId val="241703008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245002344"/>
+        <c:crossAx val="241696016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1379,11 +1409,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="446584384"/>
-        <c:axId val="446583600"/>
+        <c:axId val="242909568"/>
+        <c:axId val="241753288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446584384"/>
+        <c:axId val="242909568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,7 +1512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446583600"/>
+        <c:crossAx val="241753288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1490,7 +1520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446583600"/>
+        <c:axId val="241753288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446584384"/>
+        <c:crossAx val="242909568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1813,11 +1843,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="442363720"/>
-        <c:axId val="442362936"/>
+        <c:axId val="175129656"/>
+        <c:axId val="175129264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="442363720"/>
+        <c:axId val="175129656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442362936"/>
+        <c:crossAx val="175129264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1924,7 +1954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442362936"/>
+        <c:axId val="175129264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442363720"/>
+        <c:crossAx val="175129656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3713,15 +3743,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>474365</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273398</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>30522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>167891</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>578198</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>30522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4067,23 +4097,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4092,6 +4124,9 @@
       </c>
       <c r="C1" t="s">
         <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -4101,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12.079000000000001</v>
       </c>
@@ -4113,12 +4148,8 @@
         <v>-7.1989999999999981</v>
       </c>
       <c r="D2">
-        <f>(C2-N5)^2</f>
-        <v>0.58643687673611011</v>
-      </c>
-      <c r="E2">
-        <f>SUM(D2:D25)/23</f>
-        <v>87.63482725551026</v>
+        <f>SUM(C2-$H$8)^2</f>
+        <v>0.58643687673611689</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -4135,7 +4166,7 @@
         <v>4.7970571224691367</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>16.791</v>
       </c>
@@ -4147,12 +4178,8 @@
         <v>-1.9499999999999993</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="1">(C3-N6)^2</f>
-        <v>3.8024999999999971</v>
-      </c>
-      <c r="E3">
-        <f>SQRT(E2)</f>
-        <v>9.3613475128055281</v>
+        <f>SUM(C3-$H$8)^2</f>
+        <v>36.177718793402811</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -4169,7 +4196,7 @@
         <v>23.011757036231874</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9.5640000000000001</v>
       </c>
@@ -4181,8 +4208,8 @@
         <v>-11.649999999999999</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
-        <v>135.72249999999997</v>
+        <f t="shared" ref="D4:D25" si="1">SUM(C4-$H$8)^2</f>
+        <v>13.580760460069421</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -4199,7 +4226,7 @@
         <v>22.015916666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8.6300000000000008</v>
       </c>
@@ -4212,7 +4239,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>49.801248999999977</v>
+        <v>0.82408571006945031</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -4228,16 +4255,8 @@
         <f>MEDIAN(B2:B25)</f>
         <v>21.017499999999998</v>
       </c>
-      <c r="N5">
-        <f>AVERAGE(C2:C25)</f>
-        <v>-7.964791666666664</v>
-      </c>
-      <c r="P5">
-        <f>N5-1.714*G26</f>
-        <v>-11.310478344555914</v>
-      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14.669</v>
       </c>
@@ -4250,7 +4269,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>66.161956000000004</v>
+        <v>2.8631460069443941E-2</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -4264,12 +4283,8 @@
       <c r="J6" t="s">
         <v>8</v>
       </c>
-      <c r="P6">
-        <f>N5+1.71*G26</f>
-        <v>-4.626912892343082</v>
-      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12.238</v>
       </c>
@@ -4282,10 +4297,10 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>74.649600000000007</v>
+        <v>0.45590629340277611</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14.692</v>
       </c>
@@ -4298,14 +4313,17 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>97.614399999999975</v>
-      </c>
-      <c r="K8">
-        <f>N5/I10</f>
-        <v>-1.6372199491222617</v>
+        <v>3.6680229600694338</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H4-J4)</f>
+        <v>-7.9647916666666685</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8.9870000000000001</v>
       </c>
@@ -4318,10 +4336,17 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>70.677648999999974</v>
+        <v>0.19554821006944129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <f>SUM(D2:D25)</f>
+        <v>544.33043995833327</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9.4009999999999998</v>
       </c>
@@ -4334,14 +4359,17 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>129.07232100000002</v>
-      </c>
-      <c r="I10">
-        <f>STDEV(C2:C25)</f>
-        <v>4.8648269103590565</v>
+        <v>11.53423104340277</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f>(H9/23)</f>
+        <v>23.666540867753621</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14.48</v>
       </c>
@@ -4354,10 +4382,17 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>139.287204</v>
+        <v>14.72416779340276</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <f>SQRT(H10)</f>
+        <v>4.8648269103590538</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22.327999999999999</v>
       </c>
@@ -4370,14 +4405,17 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>4.8224160000000067</v>
+        <v>33.278957293402783</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
       </c>
       <c r="H12">
-        <f>H4-J4</f>
-        <v>-7.9647916666666685</v>
+        <f>SQRT(24)</f>
+        <v>4.8989794855663558</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15.298</v>
       </c>
@@ -4390,10 +4428,17 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>11.195715999999988</v>
+        <v>21.333236460069475</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <f>H11/H12</f>
+        <v>0.99302863477834025</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>15.073</v>
       </c>
@@ -4406,10 +4451,17 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>5.9389690000000055</v>
+        <v>30.556480710069451</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <f>H8/H13</f>
+        <v>-8.0207069441099623</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16.928999999999998</v>
       </c>
@@ -4422,10 +4474,17 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>11.566800999999998</v>
+        <v>20.828194376736128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <f>H8/H11</f>
+        <v>-1.6372199491222634</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>18.2</v>
       </c>
@@ -4438,10 +4497,17 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>290.8730250000001</v>
+        <v>82.631887543402797</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <f>H8+1.714*(H13)</f>
+        <v>-6.2627405866565935</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12.13</v>
       </c>
@@ -4454,10 +4520,17 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>100.56078400000001</v>
+        <v>4.2568286267361053</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <f>H8-1.714*(H13)</f>
+        <v>-9.6668427466767444</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18.495000000000001</v>
       </c>
@@ -4470,10 +4543,10 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>44.142735999999978</v>
+        <v>1.7444906267361202</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10.638999999999999</v>
       </c>
@@ -4486,10 +4559,10 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>95.844099999999983</v>
+        <v>3.3313854600694346</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11.343999999999999</v>
       </c>
@@ -4502,10 +4575,10 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>36.978561000000013</v>
+        <v>3.5486710434027797</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12.369</v>
       </c>
@@ -4518,10 +4591,10 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>480.44256099999984</v>
+        <v>194.71993021006932</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12.944000000000001</v>
       </c>
@@ -4534,10 +4607,10 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>119.90249999999995</v>
+        <v>8.9114687934027526</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14.233000000000001</v>
       </c>
@@ -4550,14 +4623,10 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>13.890529000000003</v>
-      </c>
-      <c r="G23">
-        <f>SQRT(23)</f>
-        <v>4.7958315233127191</v>
+        <v>17.958878210069457</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19.71</v>
       </c>
@@ -4570,10 +4639,10 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>5.5131039999999949</v>
+        <v>31.548348626736143</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16.004000000000001</v>
       </c>
@@ -4586,20 +4655,10 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>26.553408999999988</v>
+        <v>7.9061723767361292</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G26">
-        <f>E3/G23</f>
-        <v>1.9519758914172991</v>
-      </c>
-      <c r="I26">
-        <f>N5/G26</f>
-        <v>-4.0803739952359521</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -4613,7 +4672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
@@ -4629,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10</v>
       </c>
@@ -4645,7 +4704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15</v>
       </c>
@@ -4661,7 +4720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20</v>
       </c>
